--- a/downloaded_files/AERS445_Lecture-35798.xlsx
+++ b/downloaded_files/AERS445_Lecture-35798.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>ahmed Mohamed Ahmed Abass Abdelgelil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بسملة خالد عبدالفتاح محمد جلال</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Basmalla Khaled Abdel Fattah Mohamed Galal</x:t>
   </x:si>
   <x:si>
     <x:t>1200332</x:t>
@@ -236,7 +245,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -536,7 +545,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T11"/>
+  <x:dimension ref="A1:T12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -546,7 +555,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.650625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.120625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -659,7 +668,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6668329861</x:v>
+        <x:v>45929.4894573727</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -691,7 +700,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6870177431</x:v>
+        <x:v>45906.6668329861</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -723,7 +732,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6684097569</x:v>
+        <x:v>45906.6870177431</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -755,7 +764,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.5127675926</x:v>
+        <x:v>45906.6684097569</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -787,7 +796,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6698400463</x:v>
+        <x:v>45909.5127675926</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -819,7 +828,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6668108796</x:v>
+        <x:v>45906.6698400463</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -851,7 +860,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4556035069</x:v>
+        <x:v>45906.6668108796</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -883,7 +892,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6678039005</x:v>
+        <x:v>45906.4556035069</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -915,7 +924,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6732090625</x:v>
+        <x:v>45906.6678039005</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -932,6 +941,38 @@
       <x:c r="R11" s="2" t="s"/>
       <x:c r="S11" s="2" t="s"/>
       <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45906.6732090625</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS445_Lecture-35798.xlsx
+++ b/downloaded_files/AERS445_Lecture-35798.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Hesham</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250464</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد نجم عواد محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210035</x:t>
@@ -245,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -545,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T12"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -860,7 +869,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6668108796</x:v>
+        <x:v>45945.4025726042</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -892,7 +901,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4556035069</x:v>
+        <x:v>45906.6668108796</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -924,7 +933,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6678039005</x:v>
+        <x:v>45906.4556035069</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -956,7 +965,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6732090625</x:v>
+        <x:v>45906.6678039005</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -973,6 +982,38 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45906.6732090625</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
